--- a/app/Book1.xlsx
+++ b/app/Book1.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="91">
   <si>
     <t>背景</t>
   </si>
@@ -289,6 +289,48 @@
   </si>
   <si>
     <t>&lt;lesson no=""&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュ値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はっしゅち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hash value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>格納</t>
+    <rPh sb="0" eb="2">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かくの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>storage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ていぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Definition</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -296,7 +338,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +353,17 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
     </font>
   </fonts>
   <fills count="2">
@@ -335,8 +388,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,1168 +678,1201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G138"/>
+  <dimension ref="B2:M138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79:G138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="2:13">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="K2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="K3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="K4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="2:13">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="2:13">
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="2:13">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="9" spans="2:13">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="10" spans="2:13">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="11" spans="2:13">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="12" spans="2:13">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="13" spans="2:13">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="str">
+    <row r="17" spans="2:7">
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="str">
         <f>CONCATENATE(B17,C17,D17)</f>
         <v>&lt;lesson no=""&gt;</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="18" spans="2:7">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G18" s="2" t="str">
         <f t="shared" ref="G18:G76" si="0">CONCATENATE(B18,C18,D18)</f>
         <v>&lt;yomi&gt;はいけい&lt;/yomi&gt;</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="19" spans="2:7">
+      <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;kaki&gt;背景&lt;/kaki&gt;</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="20" spans="2:7">
+      <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meaning&gt;background&lt;/meaning&gt;</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="str">
+    <row r="21" spans="2:7">
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;/lesson&gt;</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="str">
+    <row r="22" spans="2:7">
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;lesson no=""&gt;</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="23" spans="2:7">
+      <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;yomi&gt;ようけん&lt;/yomi&gt;</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="24" spans="2:7">
+      <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;kaki&gt;要件&lt;/kaki&gt;</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="25" spans="2:7">
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G25" t="str">
+      <c r="G25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meaning&gt;Requirement&lt;/meaning&gt;</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="str">
+    <row r="26" spans="2:7">
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;/lesson&gt;</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" t="str">
+    <row r="27" spans="2:7">
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;lesson no=""&gt;</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="28" spans="2:7">
+      <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;yomi&gt;しよう&lt;/yomi&gt;</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="29" spans="2:7">
+      <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;kaki&gt;仕様&lt;/kaki&gt;</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="30" spans="2:7">
+      <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meaning&gt;specification&lt;/meaning&gt;</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="str">
+    <row r="31" spans="2:7">
+      <c r="B31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;/lesson&gt;</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" t="str">
+    <row r="32" spans="2:7">
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;lesson no=""&gt;</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="33" spans="2:7">
+      <c r="B33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G33" t="str">
+      <c r="G33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;yomi&gt;しゅうせいかしょ&lt;/yomi&gt;</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="34" spans="2:7">
+      <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G34" t="str">
+      <c r="G34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;kaki&gt;修正箇所&lt;/kaki&gt;</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="35" spans="2:7">
+      <c r="B35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G35" t="str">
+      <c r="G35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meaning&gt;Modification place&lt;/meaning&gt;</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="str">
+    <row r="36" spans="2:7">
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;/lesson&gt;</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" t="str">
+    <row r="37" spans="2:7">
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;lesson no=""&gt;</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="38" spans="2:7">
+      <c r="B38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G38" t="str">
+      <c r="G38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;yomi&gt;しゅうせいたいしょ&lt;/yomi&gt;</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="39" spans="2:7">
+      <c r="B39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G39" t="str">
+      <c r="G39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;kaki&gt;修正対象&lt;/kaki&gt;</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="40" spans="2:7">
+      <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G40" t="str">
+      <c r="G40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meaning&gt;Target of correction&lt;/meaning&gt;</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="str">
+    <row r="41" spans="2:7">
+      <c r="B41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;/lesson&gt;</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" t="str">
+    <row r="42" spans="2:7">
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;lesson no=""&gt;</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="43" spans="2:7">
+      <c r="B43" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G43" t="str">
+      <c r="G43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;yomi&gt;へんこうないよう&lt;/yomi&gt;</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="44" spans="2:7">
+      <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G44" t="str">
+      <c r="G44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;kaki&gt;変更内容&lt;/kaki&gt;</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="45" spans="2:7">
+      <c r="B45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G45" t="str">
+      <c r="G45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meaning&gt;Contents of change&lt;/meaning&gt;</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="str">
+    <row r="46" spans="2:7">
+      <c r="B46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;/lesson&gt;</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" t="str">
+    <row r="47" spans="2:7">
+      <c r="B47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;lesson no=""&gt;</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="48" spans="2:7">
+      <c r="B48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G48" t="str">
+      <c r="G48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;yomi&gt;こうしん&lt;/yomi&gt;</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="49" spans="2:7">
+      <c r="B49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G49" t="str">
+      <c r="G49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;kaki&gt;更新&lt;/kaki&gt;</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="50" spans="2:7">
+      <c r="B50" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G50" t="str">
+      <c r="G50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meaning&gt;update&lt;/meaning&gt;</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="str">
+    <row r="51" spans="2:7">
+      <c r="B51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;/lesson&gt;</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" t="str">
+    <row r="52" spans="2:7">
+      <c r="B52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;lesson no=""&gt;</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="53" spans="2:7">
+      <c r="B53" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G53" t="str">
+      <c r="G53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;yomi&gt;しょり&lt;/yomi&gt;</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+    <row r="54" spans="2:7">
+      <c r="B54" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G54" t="str">
+      <c r="G54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;kaki&gt;処理&lt;/kaki&gt;</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="55" spans="2:7">
+      <c r="B55" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G55" t="str">
+      <c r="G55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meaning&gt;processing&lt;/meaning&gt;</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="str">
+    <row r="56" spans="2:7">
+      <c r="B56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;/lesson&gt;</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" t="str">
+    <row r="57" spans="2:7">
+      <c r="B57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;lesson no=""&gt;</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+    <row r="58" spans="2:7">
+      <c r="B58" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G58" t="str">
+      <c r="G58" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;yomi&gt;しゅとくする&lt;/yomi&gt;</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+    <row r="59" spans="2:7">
+      <c r="B59" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G59" t="str">
+      <c r="G59" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;kaki&gt;取得する&lt;/kaki&gt;</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+    <row r="60" spans="2:7">
+      <c r="B60" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G60" t="str">
+      <c r="G60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meaning&gt;get&lt;/meaning&gt;</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="str">
+    <row r="61" spans="2:7">
+      <c r="B61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;/lesson&gt;</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" t="str">
+    <row r="62" spans="2:7">
+      <c r="B62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;lesson no=""&gt;</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+    <row r="63" spans="2:7">
+      <c r="B63" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G63" t="str">
+      <c r="G63" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;yomi&gt;れつ&lt;/yomi&gt;</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+    <row r="64" spans="2:7">
+      <c r="B64" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G64" t="str">
+      <c r="G64" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;kaki&gt;列&lt;/kaki&gt;</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="65" spans="2:7">
+      <c r="B65" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G65" t="str">
+      <c r="G65" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meaning&gt;Column&lt;/meaning&gt;</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="str">
+    <row r="66" spans="2:7">
+      <c r="B66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;/lesson&gt;</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" t="str">
+    <row r="67" spans="2:7">
+      <c r="B67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;lesson no=""&gt;</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+    <row r="68" spans="2:7">
+      <c r="B68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G68" t="str">
+      <c r="G68" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;yomi&gt;とうろく&lt;/yomi&gt;</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+    <row r="69" spans="2:7">
+      <c r="B69" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G69" t="str">
+      <c r="G69" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;kaki&gt;登録&lt;/kaki&gt;</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+    <row r="70" spans="2:7">
+      <c r="B70" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G70" t="str">
+      <c r="G70" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meaning&gt;Registration&lt;/meaning&gt;</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="str">
+    <row r="71" spans="2:7">
+      <c r="B71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;/lesson&gt;</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" t="str">
+    <row r="72" spans="2:7">
+      <c r="B72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;lesson no=""&gt;</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
+    <row r="73" spans="2:7">
+      <c r="B73" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G73" t="str">
+      <c r="G73" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;yomi&gt;いち&lt;/yomi&gt;</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+    <row r="74" spans="2:7">
+      <c r="B74" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G74" t="str">
+      <c r="G74" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;kaki&gt;位置&lt;/kaki&gt;</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+    <row r="75" spans="2:7">
+      <c r="B75" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G75" t="str">
+      <c r="G75" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;meaning&gt;position&lt;/meaning&gt;</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="str">
+    <row r="76" spans="2:7">
+      <c r="B76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="2" t="str">
         <f t="shared" si="0"/>
         <v>&lt;/lesson&gt;</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G79" t="s">
+    <row r="79" spans="2:7">
+      <c r="G79" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G80" t="s">
+    <row r="80" spans="2:7">
+      <c r="G80" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G81" t="s">
+    <row r="81" spans="7:7">
+      <c r="G81" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G82" t="s">
+    <row r="82" spans="7:7">
+      <c r="G82" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G85" t="s">
+    <row r="83" spans="7:7">
+      <c r="G83" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7">
+      <c r="G84" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="7:7">
+      <c r="G85" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G86" t="s">
+    <row r="86" spans="7:7">
+      <c r="G86" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G87" t="s">
+    <row r="87" spans="7:7">
+      <c r="G87" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G90" t="s">
+    <row r="88" spans="7:7">
+      <c r="G88" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="7:7">
+      <c r="G89" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="7:7">
+      <c r="G90" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G91" t="s">
+    <row r="91" spans="7:7">
+      <c r="G91" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G92" t="s">
+    <row r="92" spans="7:7">
+      <c r="G92" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G95" t="s">
+    <row r="93" spans="7:7">
+      <c r="G93" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="7:7">
+      <c r="G94" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="7:7">
+      <c r="G95" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G96" t="s">
+    <row r="96" spans="7:7">
+      <c r="G96" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G97" t="s">
+    <row r="97" spans="7:7">
+      <c r="G97" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G99" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G100" t="s">
+    <row r="98" spans="7:7">
+      <c r="G98" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="7:7">
+      <c r="G99" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="7:7">
+      <c r="G100" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G101" t="s">
+    <row r="101" spans="7:7">
+      <c r="G101" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G102" t="s">
+    <row r="102" spans="7:7">
+      <c r="G102" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G103" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G104" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G105" t="s">
+    <row r="103" spans="7:7">
+      <c r="G103" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="7:7">
+      <c r="G104" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="7:7">
+      <c r="G105" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G106" t="s">
+    <row r="106" spans="7:7">
+      <c r="G106" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G107" t="s">
+    <row r="107" spans="7:7">
+      <c r="G107" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G108" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G109" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G110" t="s">
+    <row r="108" spans="7:7">
+      <c r="G108" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="7:7">
+      <c r="G109" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="7:7">
+      <c r="G110" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G111" t="s">
+    <row r="111" spans="7:7">
+      <c r="G111" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G112" t="s">
+    <row r="112" spans="7:7">
+      <c r="G112" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G113" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G114" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G115" t="s">
+    <row r="113" spans="7:7">
+      <c r="G113" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="7:7">
+      <c r="G114" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="7:7">
+      <c r="G115" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G116" t="s">
+    <row r="116" spans="7:7">
+      <c r="G116" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G117" t="s">
+    <row r="117" spans="7:7">
+      <c r="G117" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G118" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G119" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G120" t="s">
+    <row r="118" spans="7:7">
+      <c r="G118" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="7:7">
+      <c r="G119" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="7:7">
+      <c r="G120" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="121" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G121" t="s">
+    <row r="121" spans="7:7">
+      <c r="G121" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G122" t="s">
+    <row r="122" spans="7:7">
+      <c r="G122" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G123" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G124" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G125" t="s">
+    <row r="123" spans="7:7">
+      <c r="G123" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="7:7">
+      <c r="G124" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="7:7">
+      <c r="G125" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G126" t="s">
+    <row r="126" spans="7:7">
+      <c r="G126" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G127" t="s">
+    <row r="127" spans="7:7">
+      <c r="G127" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G128" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G129" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G130" t="s">
+    <row r="128" spans="7:7">
+      <c r="G128" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="7:7">
+      <c r="G129" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="7:7">
+      <c r="G130" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="131" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G131" t="s">
+    <row r="131" spans="7:7">
+      <c r="G131" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G132" t="s">
+    <row r="132" spans="7:7">
+      <c r="G132" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G133" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G134" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G135" t="s">
+    <row r="133" spans="7:7">
+      <c r="G133" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="7:7">
+      <c r="G134" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="7:7">
+      <c r="G135" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G136" t="s">
+    <row r="136" spans="7:7">
+      <c r="G136" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G137" t="s">
+    <row r="137" spans="7:7">
+      <c r="G137" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="138" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G138" t="s">
+    <row r="138" spans="7:7">
+      <c r="G138" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/Book1.xlsx
+++ b/app/Book1.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="115">
   <si>
     <t>背景</t>
   </si>
@@ -331,6 +332,112 @@
   </si>
   <si>
     <t>Definition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょうりゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てんらんかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exhibition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dinosaur</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かせき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fossil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>化石</t>
+    <rPh sb="0" eb="2">
+      <t>かせき</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>展覧会</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>恐竜</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>末端</t>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まったん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めいしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重なる</t>
+    <rPh sb="0" eb="1">
+      <t>カサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かさなる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>overlap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんしょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reference</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>してい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>specify</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -338,7 +445,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +472,12 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF484848"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -388,7 +501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,6 +509,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,7 +797,7 @@
   <dimension ref="B2:M138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -749,6 +865,15 @@
       <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="K5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="2" t="s">
@@ -757,6 +882,15 @@
       <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="K6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="2" t="s">
@@ -765,6 +899,15 @@
       <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="K7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="2" t="s">
@@ -773,6 +916,15 @@
       <c r="G8" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="K8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="2" t="s">
@@ -781,6 +933,15 @@
       <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="K9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="2" t="s">
@@ -1868,6 +2029,59 @@
     <row r="138" spans="7:7">
       <c r="G138" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="42.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" ht="20.399999999999999">
+      <c r="A3" t="s" ph="1">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.399999999999999">
+      <c r="A4" t="s" ph="1">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.399999999999999">
+      <c r="A5" t="s" ph="1">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
